--- a/QA/Tests/FTP/CRUD/Update/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/CRUD/Update/_Test_Suite_Statistics.xlsx
@@ -53,13 +53,13 @@
     <t>Percentage Automated:</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>FieldsNotLockedPreImport</t>
   </si>
   <si>
     <t>LockedFieldsPostImport</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -154,74 +154,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -600,7 +533,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +570,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -649,37 +582,37 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
@@ -690,7 +623,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,7 +632,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,7 +641,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -727,30 +660,30 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D6:D49 D2:D4">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D1048576 D1:D4">
-    <cfRule type="containsText" dxfId="14" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="1" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="0" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
